--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N2">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q2">
-        <v>115.3056462910502</v>
+        <v>20.67773795870867</v>
       </c>
       <c r="R2">
-        <v>1037.750816619452</v>
+        <v>186.099641628378</v>
       </c>
       <c r="S2">
-        <v>0.007106577674579014</v>
+        <v>0.01116396125640745</v>
       </c>
       <c r="T2">
-        <v>0.01020700303657664</v>
+        <v>0.01272088314992413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q3">
-        <v>41.83928549775599</v>
+        <v>9.721699141278002</v>
       </c>
       <c r="R3">
-        <v>376.5535694798039</v>
+        <v>87.49529227150201</v>
       </c>
       <c r="S3">
-        <v>0.002578660645014473</v>
+        <v>0.00524876912437936</v>
       </c>
       <c r="T3">
-        <v>0.003703666974346072</v>
+        <v>0.005980760518479764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N4">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q4">
-        <v>268.7978256910473</v>
+        <v>95.73406201565659</v>
       </c>
       <c r="R4">
-        <v>2419.180431219426</v>
+        <v>861.6065581409091</v>
       </c>
       <c r="S4">
-        <v>0.01656668765560396</v>
+        <v>0.05168705403828625</v>
       </c>
       <c r="T4">
-        <v>0.0237943267420606</v>
+        <v>0.05889531141175222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N5">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q5">
-        <v>31.60803543794967</v>
+        <v>10.42634185277084</v>
       </c>
       <c r="R5">
-        <v>189.648212627698</v>
+        <v>62.55805111662501</v>
       </c>
       <c r="S5">
-        <v>0.001948082910126062</v>
+        <v>0.005629207446328535</v>
       </c>
       <c r="T5">
-        <v>0.001865322436919932</v>
+        <v>0.004276169751743455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H6">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I6">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J6">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N6">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q6">
-        <v>389.6465046571155</v>
+        <v>66.87793641551224</v>
       </c>
       <c r="R6">
-        <v>3506.81854191404</v>
+        <v>601.9014277396101</v>
       </c>
       <c r="S6">
-        <v>0.0240148964083204</v>
+        <v>0.03610756130782722</v>
       </c>
       <c r="T6">
-        <v>0.03449200610859719</v>
+        <v>0.04114310840714977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N7">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O7">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P7">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q7">
-        <v>138.7340933591369</v>
+        <v>107.0724489504773</v>
       </c>
       <c r="R7">
-        <v>1248.606840232232</v>
+        <v>963.6520405542959</v>
       </c>
       <c r="S7">
-        <v>0.008550531932151601</v>
+        <v>0.0578086768532801</v>
       </c>
       <c r="T7">
-        <v>0.01228091908542841</v>
+        <v>0.06587065347259574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J8">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P8">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q8">
         <v>50.340425877096</v>
@@ -948,10 +948,10 @@
         <v>453.0638328938639</v>
       </c>
       <c r="S8">
-        <v>0.003102607358567295</v>
+        <v>0.0271789189535724</v>
       </c>
       <c r="T8">
-        <v>0.004456198775323651</v>
+        <v>0.03096928090387438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J9">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N9">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O9">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P9">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q9">
-        <v>323.4136735162573</v>
+        <v>495.7254264689098</v>
       </c>
       <c r="R9">
-        <v>2910.723061646316</v>
+        <v>4461.528838220188</v>
       </c>
       <c r="S9">
-        <v>0.0199328000474736</v>
+        <v>0.2676433692102259</v>
       </c>
       <c r="T9">
-        <v>0.02862899132726223</v>
+        <v>0.3049688141492978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J10">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N10">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O10">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P10">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q10">
-        <v>38.03033312244467</v>
+        <v>53.98917221991667</v>
       </c>
       <c r="R10">
-        <v>228.181998734668</v>
+        <v>323.9350333195</v>
       </c>
       <c r="S10">
-        <v>0.002343905307486625</v>
+        <v>0.02914888602091076</v>
       </c>
       <c r="T10">
-        <v>0.002244329097773149</v>
+        <v>0.02214265256487078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J11">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N11">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O11">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P11">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q11">
-        <v>468.8170639771822</v>
+        <v>346.3040515873911</v>
       </c>
       <c r="R11">
-        <v>4219.353575794639</v>
+        <v>3116.73646428652</v>
       </c>
       <c r="S11">
-        <v>0.02889437757377647</v>
+        <v>0.1869704037539704</v>
       </c>
       <c r="T11">
-        <v>0.04150028510776805</v>
+        <v>0.2130452268708221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H12">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I12">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J12">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N12">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O12">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P12">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q12">
-        <v>1954.250127823465</v>
+        <v>60.508979655307</v>
       </c>
       <c r="R12">
-        <v>11725.50076694079</v>
+        <v>363.053877931842</v>
       </c>
       <c r="S12">
-        <v>0.1204453621800772</v>
+        <v>0.03266894598846053</v>
       </c>
       <c r="T12">
-        <v>0.115328477720133</v>
+        <v>0.02481663004768265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H13">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I13">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J13">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P13">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q13">
-        <v>709.1103659021639</v>
+        <v>28.448474234913</v>
       </c>
       <c r="R13">
-        <v>4254.662195412983</v>
+        <v>170.690845409478</v>
       </c>
       <c r="S13">
-        <v>0.04370425956776427</v>
+        <v>0.0153594007621474</v>
       </c>
       <c r="T13">
-        <v>0.04184757000688843</v>
+        <v>0.01166761139471549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H14">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I14">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J14">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N14">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O14">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P14">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q14">
-        <v>4555.702189027766</v>
+        <v>280.1452664886668</v>
       </c>
       <c r="R14">
-        <v>27334.2131341666</v>
+        <v>1680.871598932001</v>
       </c>
       <c r="S14">
-        <v>0.2807794111561072</v>
+        <v>0.1512511139995475</v>
       </c>
       <c r="T14">
-        <v>0.2688510497845093</v>
+        <v>0.1148963588158763</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H15">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I15">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J15">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N15">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O15">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P15">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q15">
-        <v>535.7067002507771</v>
+        <v>30.51046049178125</v>
       </c>
       <c r="R15">
-        <v>2142.826801003108</v>
+        <v>122.041841967125</v>
       </c>
       <c r="S15">
-        <v>0.03301695449080588</v>
+        <v>0.01647267218133698</v>
       </c>
       <c r="T15">
-        <v>0.02107619605248361</v>
+        <v>0.0083421977467611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H16">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I16">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J16">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N16">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O16">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P16">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q16">
-        <v>6603.898039910973</v>
+        <v>195.7039837740483</v>
       </c>
       <c r="R16">
-        <v>39623.38823946584</v>
+        <v>1174.22390264429</v>
       </c>
       <c r="S16">
-        <v>0.407014885092146</v>
+        <v>0.1056610591033194</v>
       </c>
       <c r="T16">
-        <v>0.3897236577439297</v>
+        <v>0.08026434079445401</v>
       </c>
     </row>
   </sheetData>
